--- a/data/trans_orig/P64B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5FF192-9C5A-47A4-9596-8562BA95CDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FC999F-FA0D-4639-9867-C06D8696FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFC2F3B3-0D01-4CE5-A479-E20B079EBDD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91E3047A-1A61-4733-B232-34633FA047DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="608">
   <si>
     <t>Población según el tipo de jornada que tiene en su trabajo en 2007 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -76,1786 +76,1792 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>Jornada continua nocturna</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>Jornada continua de tarde</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>Jornada continua de mañana</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>Jornada partida</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>Turnos</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2015 (Tasa respuesta: 33,78%)</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>Jornada continua nocturna</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Jornada continua de tarde</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Jornada continua de mañana</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>Jornada partida</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2015 (Tasa respuesta: 33,78%)</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>9,22%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>30,59%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,38%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>32,42%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF1C63A-CB4C-4C31-ACDF-935F9F21FE1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6621B98-6442-4EB4-A84F-A368315C4DAD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3005,13 +3011,13 @@
         <v>528302</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3020,13 +3026,13 @@
         <v>207461</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>710</v>
@@ -3035,13 +3041,13 @@
         <v>735763</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3103,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3115,13 @@
         <v>28381</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3124,13 +3130,13 @@
         <v>8470</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -3139,13 +3145,13 @@
         <v>36851</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,10 +3169,10 @@
         <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3175,13 +3181,13 @@
         <v>55002</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3190,7 +3196,7 @@
         <v>99028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>140</v>
@@ -3217,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3226,13 +3232,13 @@
         <v>5101</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3241,13 +3247,13 @@
         <v>6567</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3268,13 @@
         <v>9261</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3486,10 +3492,10 @@
         <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -3498,13 +3504,13 @@
         <v>166537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>336513</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -3534,13 +3540,13 @@
         <v>195345</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3549,13 +3555,13 @@
         <v>531858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>37536</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3585,13 +3591,13 @@
         <v>12506</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -3600,13 +3606,13 @@
         <v>50042</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>36464</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -3636,13 +3642,13 @@
         <v>58679</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -3651,7 +3657,7 @@
         <v>95143</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>207</v>
@@ -3834,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733C480F-349D-47E2-9098-D78F44D35EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689804F-7A08-42F9-80DC-8D7F44959452}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4192,13 +4198,13 @@
         <v>100921</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4219,13 @@
         <v>74840</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4228,13 +4234,13 @@
         <v>47921</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>118</v>
@@ -4243,13 +4249,13 @@
         <v>122761</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4323,13 @@
         <v>42654</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -4332,13 +4338,13 @@
         <v>33431</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -4347,13 +4353,13 @@
         <v>76085</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4374,13 @@
         <v>249790</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -4383,13 +4389,13 @@
         <v>92784</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -4398,13 +4404,13 @@
         <v>342574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4425,13 @@
         <v>29565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4434,13 +4440,13 @@
         <v>7560</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4449,13 +4455,13 @@
         <v>37125</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4479,10 @@
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4485,13 +4491,13 @@
         <v>45216</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4500,13 +4506,13 @@
         <v>61508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>198786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H15" s="7">
         <v>180</v>
@@ -4536,13 +4542,13 @@
         <v>192582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M15" s="7">
         <v>371</v>
@@ -4551,13 +4557,13 @@
         <v>391368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4578,13 @@
         <v>360034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4587,13 +4593,13 @@
         <v>197041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>529</v>
@@ -4602,13 +4608,13 @@
         <v>557075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4670,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4676,13 +4682,13 @@
         <v>21170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4691,13 +4697,13 @@
         <v>12944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>337</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -4706,13 +4712,13 @@
         <v>34113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4733,13 @@
         <v>57124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4742,13 +4748,13 @@
         <v>41030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4757,13 +4763,13 @@
         <v>98154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4784,13 @@
         <v>6487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4793,13 +4799,13 @@
         <v>3916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4808,13 +4814,13 @@
         <v>10403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4835,13 @@
         <v>10715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4844,13 +4850,13 @@
         <v>13829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4859,13 +4865,13 @@
         <v>24544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4886,13 @@
         <v>117894</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -4895,13 +4901,13 @@
         <v>108675</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>208</v>
@@ -4910,13 +4916,13 @@
         <v>226569</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4937,13 @@
         <v>97955</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -4946,13 +4952,13 @@
         <v>50577</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>138</v>
@@ -4961,13 +4967,13 @@
         <v>148532</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5041,13 @@
         <v>77733</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -5050,13 +5056,13 @@
         <v>66505</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -5068,10 +5074,10 @@
         <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5092,13 @@
         <v>331827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -5101,13 +5107,13 @@
         <v>149623</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>442</v>
@@ -5116,13 +5122,13 @@
         <v>481451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5143,13 @@
         <v>44228</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -5152,13 +5158,13 @@
         <v>11476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -5167,13 +5173,13 @@
         <v>55704</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,10 +5197,10 @@
         <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5203,13 +5209,13 @@
         <v>68213</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M28" s="7">
         <v>88</v>
@@ -5218,13 +5224,13 @@
         <v>96351</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5245,13 @@
         <v>371630</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>321</v>
@@ -5254,13 +5260,13 @@
         <v>347228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M29" s="7">
         <v>674</v>
@@ -5269,13 +5275,13 @@
         <v>718859</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5296,13 @@
         <v>532829</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H30" s="7">
         <v>276</v>
@@ -5305,13 +5311,13 @@
         <v>295539</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M30" s="7">
         <v>785</v>
@@ -5320,13 +5326,13 @@
         <v>828368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +5407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C65CF6-C047-4827-B093-69FC2EBF72BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACA82E-014B-47BE-AABB-1C238AF0A0B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5418,7 +5424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5525,13 +5531,13 @@
         <v>14718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5540,13 +5546,13 @@
         <v>11909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5555,13 +5561,13 @@
         <v>26627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>20907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5591,13 +5597,13 @@
         <v>5714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5606,13 +5612,13 @@
         <v>26621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5633,13 @@
         <v>1884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5648,7 +5654,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5657,13 +5663,13 @@
         <v>1884</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,7 +5690,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5693,13 +5699,13 @@
         <v>5929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5708,13 +5714,13 @@
         <v>5929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5735,13 @@
         <v>38347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>452</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5744,13 +5750,13 @@
         <v>21290</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -5759,13 +5765,13 @@
         <v>59637</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5786,13 @@
         <v>55136</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -5795,13 +5801,13 @@
         <v>20408</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -5810,13 +5816,13 @@
         <v>75544</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5890,13 @@
         <v>93488</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -5899,13 +5905,13 @@
         <v>77255</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -5914,10 +5920,10 @@
         <v>170742</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>476</v>
@@ -5950,10 +5956,10 @@
         <v>110786</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>481</v>
@@ -5986,13 +5992,13 @@
         <v>20132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -6001,13 +6007,13 @@
         <v>6207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6016,13 +6022,13 @@
         <v>26339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6043,13 @@
         <v>22944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6052,13 +6058,13 @@
         <v>45992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -6067,13 +6073,13 @@
         <v>68935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6094,13 @@
         <v>194971</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>499</v>
+        <v>210</v>
       </c>
       <c r="H15" s="7">
         <v>169</v>
@@ -6103,13 +6109,13 @@
         <v>174388</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M15" s="7">
         <v>353</v>
@@ -6118,13 +6124,13 @@
         <v>369359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6145,13 @@
         <v>363855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -6154,13 +6160,13 @@
         <v>207014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -6169,13 +6175,13 @@
         <v>570869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6237,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6243,13 +6249,13 @@
         <v>38880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>519</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6258,13 +6264,13 @@
         <v>29575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -6273,13 +6279,13 @@
         <v>68455</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6300,13 @@
         <v>46414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6309,13 +6315,13 @@
         <v>45077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -6324,13 +6330,13 @@
         <v>91491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6351,13 @@
         <v>3982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>534</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6360,13 +6366,13 @@
         <v>1048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>536</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6375,13 +6381,13 @@
         <v>5030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>533</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>8058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -6411,13 +6417,13 @@
         <v>22063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>542</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -6426,13 +6432,13 @@
         <v>30121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6453,13 @@
         <v>146977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -6462,13 +6468,13 @@
         <v>137170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -6477,13 +6483,13 @@
         <v>284147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6504,13 @@
         <v>95590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -6513,13 +6519,13 @@
         <v>65017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -6528,13 +6534,13 @@
         <v>160607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6608,13 @@
         <v>147085</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6617,13 +6623,13 @@
         <v>118739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -6632,13 +6638,13 @@
         <v>265824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6659,13 @@
         <v>251016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -6668,13 +6674,13 @@
         <v>161577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M26" s="7">
         <v>390</v>
@@ -6683,13 +6689,13 @@
         <v>412593</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,13 +6710,13 @@
         <v>25997</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6719,13 +6725,13 @@
         <v>7256</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -6734,13 +6740,13 @@
         <v>33253</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>201</v>
+        <v>584</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>581</v>
+        <v>146</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6761,13 @@
         <v>31002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6770,13 +6776,13 @@
         <v>73983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>350</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>239</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -6785,13 +6791,13 @@
         <v>104985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6812,13 @@
         <v>380295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>326</v>
@@ -6821,13 +6827,13 @@
         <v>332848</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>595</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>682</v>
@@ -6863,7 +6869,7 @@
         <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>420</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>287</v>
@@ -6872,13 +6878,13 @@
         <v>292439</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>321</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
         <v>770</v>
@@ -6887,13 +6893,13 @@
         <v>807021</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P64B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FC999F-FA0D-4639-9867-C06D8696FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA824C5-503E-4101-B4E7-8347F6FBA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91E3047A-1A61-4733-B232-34633FA047DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C29BACD5-0B18-4250-B7F8-CE2ADA7F1034}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,28 +76,28 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>Turnos</t>
@@ -106,28 +106,28 @@
     <t>17,34%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>Jornada continua nocturna</t>
@@ -136,1732 +136,1732 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Jornada continua de tarde</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>Jornada continua de mañana</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>Jornada partida</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2016 (Tasa respuesta: 33,78%)</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Jornada continua de tarde</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>Jornada continua de mañana</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>Jornada partida</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2015 (Tasa respuesta: 33,78%)</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6621B98-6442-4EB4-A84F-A368315C4DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010BE005-7458-4FDF-A453-4486DF36976B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2556,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2565,13 +2565,13 @@
         <v>10077</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2580,19 +2580,19 @@
         <v>12080</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -2601,13 +2601,13 @@
         <v>111801</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2616,13 +2616,13 @@
         <v>57327</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -2631,19 +2631,19 @@
         <v>169128</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>150</v>
@@ -2652,13 +2652,13 @@
         <v>155077</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
@@ -2667,13 +2667,13 @@
         <v>53448</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>202</v>
@@ -2682,13 +2682,13 @@
         <v>208525</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>366249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -2718,13 +2718,13 @@
         <v>151533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>495</v>
@@ -2733,18 +2733,18 @@
         <v>517782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2756,13 @@
         <v>60834</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -2771,13 +2771,13 @@
         <v>31615</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -2786,13 +2786,13 @@
         <v>92449</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
         <v>228989</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>117</v>
@@ -2822,13 +2822,13 @@
         <v>122441</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
@@ -2837,13 +2837,13 @@
         <v>351429</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2858,13 @@
         <v>29183</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2873,13 +2873,13 @@
         <v>4880</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -2888,13 +2888,13 @@
         <v>34063</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2909,13 @@
         <v>25200</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2924,13 +2924,13 @@
         <v>33811</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2939,19 +2939,19 @@
         <v>59011</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>230</v>
@@ -2960,13 +2960,13 @@
         <v>236627</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>162</v>
@@ -2975,13 +2975,13 @@
         <v>168034</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>392</v>
@@ -2990,19 +2990,19 @@
         <v>404661</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>509</v>
@@ -3011,13 +3011,13 @@
         <v>528302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3026,13 +3026,13 @@
         <v>207461</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>710</v>
@@ -3041,13 +3041,13 @@
         <v>735763</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3062,13 @@
         <v>1109134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>544</v>
@@ -3077,13 +3077,13 @@
         <v>568241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>1607</v>
@@ -3092,18 +3092,18 @@
         <v>1677376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3115,13 @@
         <v>28381</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3130,13 +3130,13 @@
         <v>8470</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -3145,13 +3145,13 @@
         <v>36851</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>44026</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>135</v>
@@ -3223,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3232,13 +3232,13 @@
         <v>5101</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3247,13 +3247,13 @@
         <v>6567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3268,13 @@
         <v>9261</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3283,13 +3283,13 @@
         <v>14791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3298,19 +3298,19 @@
         <v>24053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>159</v>
@@ -3319,13 +3319,13 @@
         <v>162890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -3334,13 +3334,13 @@
         <v>130616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>286</v>
@@ -3349,19 +3349,19 @@
         <v>293506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>146</v>
@@ -3370,13 +3370,13 @@
         <v>153190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>71</v>
@@ -3385,13 +3385,13 @@
         <v>73808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -3400,13 +3400,13 @@
         <v>226998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3421,13 @@
         <v>399215</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>276</v>
@@ -3436,13 +3436,13 @@
         <v>287789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>659</v>
@@ -3451,13 +3451,13 @@
         <v>687004</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3474,13 @@
         <v>116198</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3489,13 +3489,13 @@
         <v>50339</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -3504,13 +3504,13 @@
         <v>166537</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3525,13 @@
         <v>336513</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -3540,13 +3540,13 @@
         <v>195345</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3555,13 +3555,13 @@
         <v>531858</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3576,13 @@
         <v>37536</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3591,13 +3591,13 @@
         <v>12506</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -3606,13 +3606,13 @@
         <v>50042</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3627,13 @@
         <v>36464</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -3642,13 +3642,13 @@
         <v>58679</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -3657,19 +3657,19 @@
         <v>95143</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>495</v>
@@ -3720,7 +3720,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>805</v>
@@ -3780,13 +3780,13 @@
         <v>1874598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>965</v>
@@ -3795,13 +3795,13 @@
         <v>1007564</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>2761</v>
@@ -3810,13 +3810,13 @@
         <v>2882162</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689804F-7A08-42F9-80DC-8D7F44959452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAA2B5C-51C7-47B3-8010-DAD9772A3F05}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4087,7 +4087,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4096,13 +4096,13 @@
         <v>8176</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4117,13 @@
         <v>1131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4132,13 +4132,13 @@
         <v>9168</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4147,19 +4147,19 @@
         <v>10300</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>53</v>
@@ -4168,13 +4168,13 @@
         <v>54950</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4183,13 +4183,13 @@
         <v>45971</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -4198,19 +4198,19 @@
         <v>100921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>73</v>
@@ -4219,13 +4219,13 @@
         <v>74840</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4234,13 +4234,13 @@
         <v>47921</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>118</v>
@@ -4249,13 +4249,13 @@
         <v>122761</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4270,13 @@
         <v>177920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4285,13 +4285,13 @@
         <v>139000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>300</v>
@@ -4300,18 +4300,18 @@
         <v>316920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4323,13 +4323,13 @@
         <v>42654</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -4338,13 +4338,13 @@
         <v>33431</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -4353,13 +4353,13 @@
         <v>76085</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4374,13 @@
         <v>249790</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -4389,13 +4389,13 @@
         <v>92784</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -4404,13 +4404,13 @@
         <v>342574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4425,13 @@
         <v>29565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4440,13 +4440,13 @@
         <v>7560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4455,13 +4455,13 @@
         <v>37125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,10 +4479,10 @@
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4491,13 +4491,13 @@
         <v>45216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4506,19 +4506,19 @@
         <v>61508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>191</v>
@@ -4527,13 +4527,13 @@
         <v>198786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>180</v>
@@ -4542,13 +4542,13 @@
         <v>192582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>371</v>
@@ -4557,19 +4557,19 @@
         <v>391368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>344</v>
@@ -4578,13 +4578,13 @@
         <v>360034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4593,13 +4593,13 @@
         <v>197041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>529</v>
@@ -4608,13 +4608,13 @@
         <v>557075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4629,13 @@
         <v>897121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>531</v>
@@ -4644,13 +4644,13 @@
         <v>568613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>1381</v>
@@ -4659,18 +4659,18 @@
         <v>1465734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4682,13 +4682,13 @@
         <v>21170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4697,13 +4697,13 @@
         <v>12944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -4712,13 +4712,13 @@
         <v>34113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4733,13 @@
         <v>57124</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4748,13 +4748,13 @@
         <v>41030</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4763,13 +4763,13 @@
         <v>98154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4784,13 @@
         <v>6487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4799,13 +4799,13 @@
         <v>3916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4814,13 +4814,13 @@
         <v>10403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4835,13 @@
         <v>10715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4850,13 +4850,13 @@
         <v>13829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4865,19 +4865,19 @@
         <v>24544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>109</v>
@@ -4886,13 +4886,13 @@
         <v>117894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -4901,13 +4901,13 @@
         <v>108675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>208</v>
@@ -4916,19 +4916,19 @@
         <v>226569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>92</v>
@@ -4937,13 +4937,13 @@
         <v>97955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -4952,13 +4952,13 @@
         <v>50577</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>138</v>
@@ -4967,13 +4967,13 @@
         <v>148532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4988,13 @@
         <v>311344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -5003,13 +5003,13 @@
         <v>230971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>487</v>
@@ -5018,13 +5018,13 @@
         <v>542316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5041,13 @@
         <v>77733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -5056,13 +5056,13 @@
         <v>66505</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -5071,10 +5071,10 @@
         <v>144238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>384</v>
@@ -5146,7 +5146,7 @@
         <v>394</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>395</v>
@@ -5158,7 +5158,7 @@
         <v>11476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>396</v>
@@ -5179,7 +5179,7 @@
         <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>394</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5194,13 @@
         <v>28138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5209,13 +5209,13 @@
         <v>68213</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="M28" s="7">
         <v>88</v>
@@ -5224,19 +5224,19 @@
         <v>96351</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>353</v>
@@ -5245,13 +5245,13 @@
         <v>371630</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>321</v>
@@ -5260,13 +5260,13 @@
         <v>347228</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="M29" s="7">
         <v>674</v>
@@ -5275,19 +5275,19 @@
         <v>718859</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>509</v>
@@ -5296,13 +5296,13 @@
         <v>532829</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H30" s="7">
         <v>276</v>
@@ -5311,13 +5311,13 @@
         <v>295539</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M30" s="7">
         <v>785</v>
@@ -5326,13 +5326,13 @@
         <v>828368</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5347,13 @@
         <v>1386385</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>866</v>
@@ -5362,13 +5362,13 @@
         <v>938584</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>2168</v>
@@ -5377,13 +5377,13 @@
         <v>2324970</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACA82E-014B-47BE-AABB-1C238AF0A0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE6BAE-78B3-4CAA-AA75-29544FCA0E0D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5424,7 +5424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5531,13 +5531,13 @@
         <v>14718</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5546,13 +5546,13 @@
         <v>11909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5561,13 +5561,13 @@
         <v>26627</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5612,13 @@
         <v>26621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5633,13 @@
         <v>1884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5663,13 +5663,13 @@
         <v>1884</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5699,13 +5699,13 @@
         <v>5929</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5714,19 +5714,19 @@
         <v>5929</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>38</v>
@@ -5735,13 +5735,13 @@
         <v>38347</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5750,13 +5750,13 @@
         <v>21290</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -5765,19 +5765,19 @@
         <v>59637</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>51</v>
@@ -5786,13 +5786,13 @@
         <v>55136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -5801,13 +5801,13 @@
         <v>20408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -5816,13 +5816,13 @@
         <v>75544</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5837,13 @@
         <v>130992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5852,13 +5852,13 @@
         <v>65250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -5867,18 +5867,18 @@
         <v>196242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5890,13 +5890,13 @@
         <v>93488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -5905,13 +5905,13 @@
         <v>77255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>28</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -5920,13 +5920,13 @@
         <v>170742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5941,13 @@
         <v>183695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
@@ -5956,13 +5956,13 @@
         <v>110786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>243</v>
+        <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>281</v>
@@ -5971,13 +5971,13 @@
         <v>294481</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5992,13 @@
         <v>20132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>486</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -6007,13 +6007,13 @@
         <v>6207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6022,13 +6022,13 @@
         <v>26339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6043,13 @@
         <v>22944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6058,13 +6058,13 @@
         <v>45992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -6073,19 +6073,19 @@
         <v>68935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>184</v>
@@ -6094,13 +6094,13 @@
         <v>194971</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>210</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>169</v>
@@ -6109,13 +6109,13 @@
         <v>174388</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
         <v>353</v>
@@ -6124,19 +6124,19 @@
         <v>369359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>342</v>
@@ -6145,13 +6145,13 @@
         <v>363855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -6160,13 +6160,13 @@
         <v>207014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -6175,13 +6175,13 @@
         <v>570869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6196,13 @@
         <v>879084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>606</v>
@@ -6211,13 +6211,13 @@
         <v>621642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>1426</v>
@@ -6226,18 +6226,18 @@
         <v>1500726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6249,13 +6249,13 @@
         <v>38880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6264,13 +6264,13 @@
         <v>29575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>517</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -6279,13 +6279,13 @@
         <v>68455</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6300,13 @@
         <v>46414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6315,13 +6315,13 @@
         <v>45077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -6330,13 +6330,13 @@
         <v>91491</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6351,13 @@
         <v>3982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6366,13 +6366,13 @@
         <v>1048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6381,13 +6381,13 @@
         <v>5030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>537</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6402,13 @@
         <v>8058</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -6417,13 +6417,13 @@
         <v>22063</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -6432,19 +6432,19 @@
         <v>30121</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>134</v>
@@ -6453,13 +6453,13 @@
         <v>146977</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -6468,13 +6468,13 @@
         <v>137170</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -6483,19 +6483,19 @@
         <v>284147</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>90</v>
@@ -6504,13 +6504,13 @@
         <v>95590</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -6519,13 +6519,13 @@
         <v>65017</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -6555,13 +6555,13 @@
         <v>339901</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>291</v>
@@ -6570,13 +6570,13 @@
         <v>299949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>601</v>
@@ -6585,13 +6585,13 @@
         <v>639850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6623,13 +6623,13 @@
         <v>118739</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -6638,13 +6638,13 @@
         <v>265824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6689,13 @@
         <v>412593</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6710,13 @@
         <v>25997</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6725,13 +6725,13 @@
         <v>7256</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>538</v>
+        <v>92</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>583</v>
+        <v>439</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -6740,13 +6740,13 @@
         <v>33253</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,7 +6767,7 @@
         <v>586</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>587</v>
+        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6776,13 +6776,13 @@
         <v>73983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>587</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>588</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -6791,19 +6791,19 @@
         <v>104985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>356</v>
@@ -6812,13 +6812,13 @@
         <v>380295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>326</v>
@@ -6827,13 +6827,13 @@
         <v>332848</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>682</v>
@@ -6842,19 +6842,19 @@
         <v>713143</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>483</v>
@@ -6863,13 +6863,13 @@
         <v>514582</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H30" s="7">
         <v>287</v>
@@ -6878,13 +6878,13 @@
         <v>292439</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M30" s="7">
         <v>770</v>
@@ -6893,13 +6893,13 @@
         <v>807021</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>605</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>607</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6914,13 @@
         <v>1349977</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>962</v>
@@ -6929,13 +6929,13 @@
         <v>986842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>2214</v>
@@ -6944,13 +6944,13 @@
         <v>2336818</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P64B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA824C5-503E-4101-B4E7-8347F6FBA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7F6678-C8B3-4674-B4FC-4711911F8725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C29BACD5-0B18-4250-B7F8-CE2ADA7F1034}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{943243D4-0E5A-4AC5-9117-1FF6465C3362}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="606">
   <si>
     <t>Población según el tipo de jornada que tiene en su trabajo en 2007 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -76,1792 +76,1786 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>Jornada continua nocturna</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>Jornada continua de tarde</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>Jornada continua de mañana</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>Jornada partida</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2016 (Tasa respuesta: 33,78%)</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>Turnos</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>Jornada continua nocturna</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>Jornada continua de tarde</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>Jornada continua de mañana</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>Jornada partida</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2016 (Tasa respuesta: 33,78%)</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010BE005-7458-4FDF-A453-4486DF36976B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BA29F1-77AE-4178-9139-D2CB53E3537F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2556,7 +2550,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2565,13 +2559,13 @@
         <v>10077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2580,19 +2574,19 @@
         <v>12080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -2601,13 +2595,13 @@
         <v>111801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2616,13 +2610,13 @@
         <v>57327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -2631,19 +2625,19 @@
         <v>169128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>150</v>
@@ -2652,13 +2646,13 @@
         <v>155077</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
@@ -2667,13 +2661,13 @@
         <v>53448</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>202</v>
@@ -2682,13 +2676,13 @@
         <v>208525</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2697,13 @@
         <v>366249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -2718,13 +2712,13 @@
         <v>151533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>495</v>
@@ -2733,18 +2727,18 @@
         <v>517782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2750,13 @@
         <v>60834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -2771,13 +2765,13 @@
         <v>31615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -2786,13 +2780,13 @@
         <v>92449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2801,13 @@
         <v>228989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>117</v>
@@ -2822,13 +2816,13 @@
         <v>122441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>333</v>
@@ -2837,13 +2831,13 @@
         <v>351429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2852,13 @@
         <v>29183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2873,13 +2867,13 @@
         <v>4880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -2888,13 +2882,13 @@
         <v>34063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2903,13 @@
         <v>25200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2924,13 +2918,13 @@
         <v>33811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2939,19 +2933,19 @@
         <v>59011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>230</v>
@@ -2960,13 +2954,13 @@
         <v>236627</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>162</v>
@@ -2975,13 +2969,13 @@
         <v>168034</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>392</v>
@@ -2990,19 +2984,19 @@
         <v>404661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>509</v>
@@ -3011,13 +3005,13 @@
         <v>528302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3026,13 +3020,13 @@
         <v>207461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>710</v>
@@ -3041,13 +3035,13 @@
         <v>735763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3056,13 @@
         <v>1109134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>544</v>
@@ -3077,13 +3071,13 @@
         <v>568241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>1607</v>
@@ -3092,18 +3086,18 @@
         <v>1677376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3109,13 @@
         <v>28381</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3130,13 +3124,13 @@
         <v>8470</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -3145,13 +3139,13 @@
         <v>36851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>44026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3181,13 +3175,13 @@
         <v>55002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3196,7 +3190,7 @@
         <v>99028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>140</v>
@@ -3274,7 +3268,7 @@
         <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3283,13 +3277,13 @@
         <v>14791</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3298,19 +3292,19 @@
         <v>24053</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>159</v>
@@ -3319,13 +3313,13 @@
         <v>162890</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -3334,13 +3328,13 @@
         <v>130616</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>286</v>
@@ -3349,19 +3343,19 @@
         <v>293506</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>146</v>
@@ -3370,13 +3364,13 @@
         <v>153190</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>71</v>
@@ -3385,13 +3379,13 @@
         <v>73808</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -3400,13 +3394,13 @@
         <v>226998</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3415,13 @@
         <v>399215</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>276</v>
@@ -3436,13 +3430,13 @@
         <v>287789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>659</v>
@@ -3451,13 +3445,13 @@
         <v>687004</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3468,13 @@
         <v>116198</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3489,10 +3483,10 @@
         <v>50339</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>180</v>
@@ -3510,7 +3504,7 @@
         <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3519,13 @@
         <v>336513</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -3540,13 +3534,13 @@
         <v>195345</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -3555,13 +3549,13 @@
         <v>531858</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3570,13 @@
         <v>37536</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3591,13 +3585,13 @@
         <v>12506</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>45</v>
@@ -3606,13 +3600,13 @@
         <v>50042</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3621,13 @@
         <v>36464</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -3642,13 +3636,13 @@
         <v>58679</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -3657,19 +3651,19 @@
         <v>95143</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>495</v>
@@ -3720,7 +3714,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>805</v>
@@ -3780,13 +3774,13 @@
         <v>1874598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>965</v>
@@ -3795,13 +3789,13 @@
         <v>1007564</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>2761</v>
@@ -3810,13 +3804,13 @@
         <v>2882162</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAA2B5C-51C7-47B3-8010-DAD9772A3F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD24A1-F01B-41A0-8E81-1A74B4525CD1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4087,7 +4081,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4096,13 +4090,13 @@
         <v>8176</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4111,13 @@
         <v>1131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4132,13 +4126,13 @@
         <v>9168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4147,19 +4141,19 @@
         <v>10300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>53</v>
@@ -4168,13 +4162,13 @@
         <v>54950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4183,13 +4177,13 @@
         <v>45971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -4198,19 +4192,19 @@
         <v>100921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>73</v>
@@ -4219,13 +4213,13 @@
         <v>74840</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4234,13 +4228,13 @@
         <v>47921</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>118</v>
@@ -4249,13 +4243,13 @@
         <v>122761</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>177920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4285,13 +4279,13 @@
         <v>139000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>300</v>
@@ -4300,18 +4294,18 @@
         <v>316920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4323,13 +4317,13 @@
         <v>42654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -4338,13 +4332,13 @@
         <v>33431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -4353,13 +4347,13 @@
         <v>76085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4368,13 @@
         <v>249790</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -4389,13 +4383,13 @@
         <v>92784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -4404,13 +4398,13 @@
         <v>342574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4419,13 @@
         <v>29565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4440,13 +4434,13 @@
         <v>7560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4455,13 +4449,13 @@
         <v>37125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,10 +4473,10 @@
         <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4491,13 +4485,13 @@
         <v>45216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4506,19 +4500,19 @@
         <v>61508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>191</v>
@@ -4527,13 +4521,13 @@
         <v>198786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H15" s="7">
         <v>180</v>
@@ -4542,13 +4536,13 @@
         <v>192582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M15" s="7">
         <v>371</v>
@@ -4557,19 +4551,19 @@
         <v>391368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>344</v>
@@ -4578,13 +4572,13 @@
         <v>360034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4593,13 +4587,13 @@
         <v>197041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>529</v>
@@ -4608,13 +4602,13 @@
         <v>557075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4623,13 @@
         <v>897121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>531</v>
@@ -4644,13 +4638,13 @@
         <v>568613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>1381</v>
@@ -4659,18 +4653,18 @@
         <v>1465734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4682,13 +4676,13 @@
         <v>21170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4697,13 +4691,13 @@
         <v>12944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -4712,13 +4706,13 @@
         <v>34113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4727,13 @@
         <v>57124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4748,13 +4742,13 @@
         <v>41030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4763,13 +4757,13 @@
         <v>98154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4778,13 @@
         <v>6487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4799,13 +4793,13 @@
         <v>3916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4814,13 +4808,13 @@
         <v>10403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4829,13 @@
         <v>10715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4850,13 +4844,13 @@
         <v>13829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4865,19 +4859,19 @@
         <v>24544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>109</v>
@@ -4886,13 +4880,13 @@
         <v>117894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -4901,13 +4895,13 @@
         <v>108675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>208</v>
@@ -4916,19 +4910,19 @@
         <v>226569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>92</v>
@@ -4937,13 +4931,13 @@
         <v>97955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -4952,13 +4946,13 @@
         <v>50577</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>138</v>
@@ -4967,13 +4961,13 @@
         <v>148532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4982,13 @@
         <v>311344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -5003,13 +4997,13 @@
         <v>230971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>487</v>
@@ -5018,13 +5012,13 @@
         <v>542316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5035,13 @@
         <v>77733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -5056,13 +5050,13 @@
         <v>66505</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -5071,13 +5065,13 @@
         <v>144238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5086,13 @@
         <v>331827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -5107,13 +5101,13 @@
         <v>149623</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>442</v>
@@ -5122,13 +5116,13 @@
         <v>481451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5137,13 @@
         <v>44228</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>97</v>
+        <v>399</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -5158,13 +5152,13 @@
         <v>11476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -5173,13 +5167,13 @@
         <v>55704</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5188,13 @@
         <v>28138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5209,13 +5203,13 @@
         <v>68213</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>88</v>
@@ -5224,19 +5218,19 @@
         <v>96351</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>353</v>
@@ -5245,13 +5239,13 @@
         <v>371630</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>406</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>321</v>
@@ -5260,13 +5254,13 @@
         <v>347228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>674</v>
@@ -5275,19 +5269,19 @@
         <v>718859</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>509</v>
@@ -5296,13 +5290,13 @@
         <v>532829</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>276</v>
@@ -5311,13 +5305,13 @@
         <v>295539</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M30" s="7">
         <v>785</v>
@@ -5326,13 +5320,13 @@
         <v>828368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5341,13 @@
         <v>1386385</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>866</v>
@@ -5362,13 +5356,13 @@
         <v>938584</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>2168</v>
@@ -5377,13 +5371,13 @@
         <v>2324970</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE6BAE-78B3-4CAA-AA75-29544FCA0E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052C6DB8-22F9-4F30-8BE6-A5A406799A3E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5424,7 +5418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5531,13 +5525,13 @@
         <v>14718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5546,13 +5540,13 @@
         <v>11909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -5561,13 +5555,13 @@
         <v>26627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5576,13 @@
         <v>20907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5597,13 +5591,13 @@
         <v>5714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5612,13 +5606,13 @@
         <v>26621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5627,13 @@
         <v>1884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>130</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5654,7 +5648,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5669,7 +5663,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,7 +5684,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5699,13 +5693,13 @@
         <v>5929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5714,19 +5708,19 @@
         <v>5929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>38</v>
@@ -5735,13 +5729,13 @@
         <v>38347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5750,13 +5744,13 @@
         <v>21290</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -5765,19 +5759,19 @@
         <v>59637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>51</v>
@@ -5786,13 +5780,13 @@
         <v>55136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>461</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -5801,13 +5795,13 @@
         <v>20408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -5816,13 +5810,13 @@
         <v>75544</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5831,13 @@
         <v>130992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5852,13 +5846,13 @@
         <v>65250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -5867,18 +5861,18 @@
         <v>196242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5890,13 +5884,13 @@
         <v>93488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -5905,13 +5899,13 @@
         <v>77255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -5920,13 +5914,13 @@
         <v>170742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5935,13 @@
         <v>183695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
@@ -5956,13 +5950,13 @@
         <v>110786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>281</v>
@@ -5971,13 +5965,13 @@
         <v>294481</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5986,13 @@
         <v>20132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -6007,13 +6001,13 @@
         <v>6207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6022,13 +6016,13 @@
         <v>26339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>486</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,10 +6037,10 @@
         <v>22944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>491</v>
@@ -6073,19 +6067,19 @@
         <v>68935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>184</v>
@@ -6094,13 +6088,13 @@
         <v>194971</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H15" s="7">
         <v>169</v>
@@ -6109,13 +6103,13 @@
         <v>174388</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M15" s="7">
         <v>353</v>
@@ -6124,19 +6118,19 @@
         <v>369359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>342</v>
@@ -6145,13 +6139,13 @@
         <v>363855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -6160,13 +6154,13 @@
         <v>207014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>511</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -6175,13 +6169,13 @@
         <v>570869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6190,13 @@
         <v>879084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>606</v>
@@ -6211,13 +6205,13 @@
         <v>621642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>1426</v>
@@ -6226,18 +6220,18 @@
         <v>1500726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6249,13 +6243,13 @@
         <v>38880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>515</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6264,13 +6258,13 @@
         <v>29575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -6279,13 +6273,13 @@
         <v>68455</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6294,13 @@
         <v>46414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>524</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6351,13 +6345,13 @@
         <v>3982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6366,13 +6360,13 @@
         <v>1048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6381,13 +6375,13 @@
         <v>5030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6396,13 @@
         <v>8058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -6417,13 +6411,13 @@
         <v>22063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>540</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -6432,19 +6426,19 @@
         <v>30121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>134</v>
@@ -6453,13 +6447,13 @@
         <v>146977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -6468,13 +6462,13 @@
         <v>137170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -6483,19 +6477,19 @@
         <v>284147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>90</v>
@@ -6504,13 +6498,13 @@
         <v>95590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -6519,13 +6513,13 @@
         <v>65017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -6534,13 +6528,13 @@
         <v>160607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6549,13 @@
         <v>339901</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>291</v>
@@ -6570,13 +6564,13 @@
         <v>299949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>601</v>
@@ -6585,13 +6579,13 @@
         <v>639850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6602,13 @@
         <v>147085</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -6623,13 +6617,13 @@
         <v>118739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -6638,13 +6632,13 @@
         <v>265824</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6653,13 @@
         <v>251016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -6674,13 +6668,13 @@
         <v>161577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>390</v>
@@ -6689,13 +6683,13 @@
         <v>412593</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>480</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>577</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6704,13 @@
         <v>25997</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6725,13 +6719,13 @@
         <v>7256</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>92</v>
+        <v>579</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>439</v>
+        <v>580</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -6740,13 +6734,13 @@
         <v>33253</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6755,13 @@
         <v>31002</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6776,13 +6770,13 @@
         <v>73983</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -6791,19 +6785,19 @@
         <v>104985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>588</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>356</v>
@@ -6812,13 +6806,13 @@
         <v>380295</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>326</v>
@@ -6827,13 +6821,13 @@
         <v>332848</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>682</v>
@@ -6842,19 +6836,19 @@
         <v>713143</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>483</v>
@@ -6863,13 +6857,13 @@
         <v>514582</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>603</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>287</v>
@@ -6878,13 +6872,13 @@
         <v>292439</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>605</v>
+        <v>321</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M30" s="7">
         <v>770</v>
@@ -6893,13 +6887,13 @@
         <v>807021</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>603</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6908,13 @@
         <v>1349977</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>962</v>
@@ -6929,13 +6923,13 @@
         <v>986842</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>2214</v>
@@ -6944,13 +6938,13 @@
         <v>2336818</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P64B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7F6678-C8B3-4674-B4FC-4711911F8725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{757A3FC7-D090-4BD0-B254-CEB1F1842EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{943243D4-0E5A-4AC5-9117-1FF6465C3362}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB1EA2E3-1725-4AE4-943F-E40C16F44F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2267,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BA29F1-77AE-4178-9139-D2CB53E3537F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FECA14-D371-4962-9E42-FE18C18F7ABD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3053,7 +3053,7 @@
         <v>1063</v>
       </c>
       <c r="D17" s="7">
-        <v>1109134</v>
+        <v>1109135</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -3834,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD24A1-F01B-41A0-8E81-1A74B4525CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD6656F-C50C-4874-B242-D57944341521}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5113,7 @@
         <v>442</v>
       </c>
       <c r="N26" s="7">
-        <v>481451</v>
+        <v>481450</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>395</v>
@@ -5266,7 +5266,7 @@
         <v>674</v>
       </c>
       <c r="N29" s="7">
-        <v>718859</v>
+        <v>718858</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>416</v>
@@ -5368,7 +5368,7 @@
         <v>2168</v>
       </c>
       <c r="N31" s="7">
-        <v>2324970</v>
+        <v>2324969</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>69</v>
@@ -5401,7 +5401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052C6DB8-22F9-4F30-8BE6-A5A406799A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846A26F-56DD-4E7F-BA97-3E6553EAFF13}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
